--- a/sample_schema_file.xlsx
+++ b/sample_schema_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ALL_MY_PYTHON_WORK\Generate_DB_schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ALL_MY_PYTHON_WORK\TranspileTableSchema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3DA520-0335-4782-8A69-9F32F53140FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E90FB8F-56E7-4CC1-A6DE-D7D3DF34A419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="16440" xr2:uid="{6E9ECF28-97CB-4867-8B8E-87FDFB224603}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E9ECF28-97CB-4867-8B8E-87FDFB224603}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>SOURCE_DB</t>
   </si>
@@ -68,43 +68,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>GSC_CORE</t>
-  </si>
-  <si>
-    <t>ILMN.P2D.RV/OrderFulfillmentMetrics_RV</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>DEMO2</t>
-  </si>
-  <si>
-    <t>DEMO</t>
-  </si>
-  <si>
-    <t>ILMN.P2R.SLS.BV/GSC_OrderHeader_QV</t>
-  </si>
-  <si>
-    <t>ILMN.P2R.SLS.BV/GSC_DeliveryLine_QV</t>
-  </si>
-  <si>
-    <t>ILMN.P2D/MaterialMaster_QV</t>
-  </si>
-  <si>
-    <t>DEMO3</t>
-  </si>
-  <si>
-    <t>DEMO4</t>
-  </si>
-  <si>
-    <t>DEMO5</t>
-  </si>
-  <si>
-    <t>ILMN.QLTY.QV/ComplaintsDetail_QV</t>
-  </si>
-  <si>
-    <t>DEMO6</t>
+    <t>PurchaseQueryView</t>
+  </si>
+  <si>
+    <t>SF_DEMO_SCHEMA</t>
+  </si>
+  <si>
+    <t>DEMO_TABLE1</t>
+  </si>
+  <si>
+    <t>WBSElementQueryView</t>
+  </si>
+  <si>
+    <t>DEMO_TABLE2</t>
   </si>
 </sst>
 </file>
@@ -504,24 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0DD681-1810-4C60-BCEB-FCAE2D4524FC}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -552,22 +531,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -575,111 +554,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
